--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.4771272701056</v>
+        <v>15.79399266666667</v>
       </c>
       <c r="H2">
-        <v>6.4771272701056</v>
+        <v>47.381978</v>
       </c>
       <c r="I2">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="J2">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.270623562464</v>
+        <v>62.351132</v>
       </c>
       <c r="N2">
-        <v>26.270623562464</v>
+        <v>187.053396</v>
       </c>
       <c r="O2">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="P2">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="Q2">
-        <v>170.1581722791143</v>
+        <v>984.7733215663654</v>
       </c>
       <c r="R2">
-        <v>170.1581722791143</v>
+        <v>8862.959894097288</v>
       </c>
       <c r="S2">
-        <v>0.1380061419096092</v>
+        <v>0.2855322590253485</v>
       </c>
       <c r="T2">
-        <v>0.1380061419096092</v>
+        <v>0.2855322590253484</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.4771272701056</v>
+        <v>15.79399266666667</v>
       </c>
       <c r="H3">
-        <v>6.4771272701056</v>
+        <v>47.381978</v>
       </c>
       <c r="I3">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="J3">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.709693930540904</v>
+        <v>0.8562703333333334</v>
       </c>
       <c r="N3">
-        <v>0.709693930540904</v>
+        <v>2.568811</v>
       </c>
       <c r="O3">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="P3">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="Q3">
-        <v>4.596777910934919</v>
+        <v>13.52392736535089</v>
       </c>
       <c r="R3">
-        <v>4.596777910934919</v>
+        <v>121.715346288158</v>
       </c>
       <c r="S3">
-        <v>0.003728199334809777</v>
+        <v>0.003921224760010048</v>
       </c>
       <c r="T3">
-        <v>0.003728199334809777</v>
+        <v>0.003921224760010047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.4771272701056</v>
+        <v>15.79399266666667</v>
       </c>
       <c r="H4">
-        <v>6.4771272701056</v>
+        <v>47.381978</v>
       </c>
       <c r="I4">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="J4">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.55645728335023</v>
+        <v>1.606628666666667</v>
       </c>
       <c r="N4">
-        <v>1.55645728335023</v>
+        <v>4.819886</v>
       </c>
       <c r="O4">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="P4">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="Q4">
-        <v>10.08137191474225</v>
+        <v>25.37508137938978</v>
       </c>
       <c r="R4">
-        <v>10.08137191474225</v>
+        <v>228.375732414508</v>
       </c>
       <c r="S4">
-        <v>0.008176458553088486</v>
+        <v>0.007357433584497182</v>
       </c>
       <c r="T4">
-        <v>0.008176458553088486</v>
+        <v>0.007357433584497181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.419269130392</v>
+        <v>24.86954866666666</v>
       </c>
       <c r="H5">
-        <v>24.419269130392</v>
+        <v>74.60864599999999</v>
       </c>
       <c r="I5">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="J5">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.270623562464</v>
+        <v>62.351132</v>
       </c>
       <c r="N5">
-        <v>26.270623562464</v>
+        <v>187.053396</v>
       </c>
       <c r="O5">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="P5">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="Q5">
-        <v>641.5094269950258</v>
+        <v>1550.644511695757</v>
       </c>
       <c r="R5">
-        <v>641.5094269950258</v>
+        <v>13955.80060526181</v>
       </c>
       <c r="S5">
-        <v>0.52029379390022</v>
+        <v>0.4496050214535688</v>
       </c>
       <c r="T5">
-        <v>0.52029379390022</v>
+        <v>0.4496050214535688</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.419269130392</v>
+        <v>24.86954866666666</v>
       </c>
       <c r="H6">
-        <v>24.419269130392</v>
+        <v>74.60864599999999</v>
       </c>
       <c r="I6">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="J6">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.709693930540904</v>
+        <v>0.8562703333333334</v>
       </c>
       <c r="N6">
-        <v>0.709693930540904</v>
+        <v>2.568811</v>
       </c>
       <c r="O6">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="P6">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="Q6">
-        <v>17.33020709008406</v>
+        <v>21.29505672665622</v>
       </c>
       <c r="R6">
-        <v>17.33020709008406</v>
+        <v>191.655510539906</v>
       </c>
       <c r="S6">
-        <v>0.01405559889932255</v>
+        <v>0.00617444189446934</v>
       </c>
       <c r="T6">
-        <v>0.01405559889932255</v>
+        <v>0.00617444189446934</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.419269130392</v>
+        <v>24.86954866666666</v>
       </c>
       <c r="H7">
-        <v>24.419269130392</v>
+        <v>74.60864599999999</v>
       </c>
       <c r="I7">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="J7">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.55645728335023</v>
+        <v>1.606628666666667</v>
       </c>
       <c r="N7">
-        <v>1.55645728335023</v>
+        <v>4.819886</v>
       </c>
       <c r="O7">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="P7">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="Q7">
-        <v>38.00754929208806</v>
+        <v>39.95612981492844</v>
       </c>
       <c r="R7">
-        <v>38.00754929208806</v>
+        <v>359.605168334356</v>
       </c>
       <c r="S7">
-        <v>0.0308258790687786</v>
+        <v>0.01158516763006942</v>
       </c>
       <c r="T7">
-        <v>0.0308258790687786</v>
+        <v>0.01158516763006942</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.3101456155186</v>
+        <v>12.54876233333333</v>
       </c>
       <c r="H8">
-        <v>12.3101456155186</v>
+        <v>37.646287</v>
       </c>
       <c r="I8">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="J8">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.270623562464</v>
+        <v>62.351132</v>
       </c>
       <c r="N8">
-        <v>26.270623562464</v>
+        <v>187.053396</v>
       </c>
       <c r="O8">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="P8">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="Q8">
-        <v>323.3952014644058</v>
+        <v>782.4295366822947</v>
       </c>
       <c r="R8">
-        <v>323.3952014644058</v>
+        <v>7041.865830140652</v>
       </c>
       <c r="S8">
-        <v>0.2622884547265529</v>
+        <v>0.2268632468451741</v>
       </c>
       <c r="T8">
-        <v>0.2622884547265529</v>
+        <v>0.2268632468451741</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.3101456155186</v>
+        <v>12.54876233333333</v>
       </c>
       <c r="H9">
-        <v>12.3101456155186</v>
+        <v>37.646287</v>
       </c>
       <c r="I9">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="J9">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.709693930540904</v>
+        <v>0.8562703333333334</v>
       </c>
       <c r="N9">
-        <v>0.709693930540904</v>
+        <v>2.568811</v>
       </c>
       <c r="O9">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="P9">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="Q9">
-        <v>8.736435627408271</v>
+        <v>10.74513290608411</v>
       </c>
       <c r="R9">
-        <v>8.736435627408271</v>
+        <v>96.70619615475701</v>
       </c>
       <c r="S9">
-        <v>0.007085653065211377</v>
+        <v>0.003115521110301566</v>
       </c>
       <c r="T9">
-        <v>0.007085653065211377</v>
+        <v>0.003115521110301566</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.3101456155186</v>
+        <v>12.54876233333333</v>
       </c>
       <c r="H10">
-        <v>12.3101456155186</v>
+        <v>37.646287</v>
       </c>
       <c r="I10">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="J10">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.55645728335023</v>
+        <v>1.606628666666667</v>
       </c>
       <c r="N10">
-        <v>1.55645728335023</v>
+        <v>4.819886</v>
       </c>
       <c r="O10">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="P10">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="Q10">
-        <v>19.16021580237582</v>
+        <v>20.16120129592023</v>
       </c>
       <c r="R10">
-        <v>19.16021580237582</v>
+        <v>181.450811663282</v>
       </c>
       <c r="S10">
-        <v>0.01553982054240703</v>
+        <v>0.005845683696561162</v>
       </c>
       <c r="T10">
-        <v>0.01553982054240703</v>
+        <v>0.005845683696561161</v>
       </c>
     </row>
   </sheetData>
